--- a/Apple_data_quarterly_cashflow_statement.xlsx
+++ b/Apple_data_quarterly_cashflow_statement.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>45199</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>45107</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>45016</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>44926</v>
       </c>
     </row>
     <row r="2">
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>20694000000</v>
+      </c>
+      <c r="C2" t="n">
         <v>37503000000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>19435000000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>24287000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>25644000000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30218000000</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>-23205000000</v>
+      </c>
+      <c r="C3" t="n">
         <v>-20139000000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-21003000000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-17478000000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-19594000000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-19475000000</v>
       </c>
     </row>
     <row r="4">
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-3148000000</v>
+      </c>
+      <c r="C4" t="n">
         <v>-3984000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>-7500000000</v>
-      </c>
       <c r="E4" t="n">
-        <v>5964000000</v>
+        <v>460000000</v>
       </c>
       <c r="F4" t="n">
-        <v>-9615000000</v>
+        <v>-1996000000</v>
       </c>
     </row>
     <row r="5">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -543,19 +543,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-1996000000</v>
+      </c>
+      <c r="C6" t="n">
         <v>-2392000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-2163000000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-2093000000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-2916000000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-3787000000</v>
       </c>
     </row>
     <row r="7">
@@ -565,17 +565,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
         <v>1213000000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>717000000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1170000000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>703000000</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +583,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>7276000000</v>
+      </c>
+      <c r="C8" t="n">
         <v>7255000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>11659000000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2126000000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4066000000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>828000000</v>
       </c>
     </row>
     <row r="9">
@@ -607,19 +605,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>33921000000</v>
+      </c>
+      <c r="C9" t="n">
         <v>41974000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>30737000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>29898000000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>27129000000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>21974000000</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +627,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>41974000000</v>
+      </c>
+      <c r="C10" t="n">
         <v>30737000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>29898000000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>27129000000</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>21974000000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24977000000</v>
       </c>
     </row>
     <row r="11">
@@ -651,19 +649,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>-8053000000</v>
+      </c>
+      <c r="C11" t="n">
         <v>11237000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>839000000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2769000000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>5155000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-3003000000</v>
       </c>
     </row>
     <row r="12">
@@ -673,19 +671,19 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>-30433000000</v>
+      </c>
+      <c r="C12" t="n">
         <v>-30585000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-23153000000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-24048000000</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-25724000000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-35563000000</v>
       </c>
     </row>
     <row r="13">
@@ -695,19 +693,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>-30433000000</v>
+      </c>
+      <c r="C13" t="n">
         <v>-30585000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-23153000000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-24048000000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-25724000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-35563000000</v>
       </c>
     </row>
     <row r="14">
@@ -717,19 +715,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>-370000000</v>
+      </c>
+      <c r="C14" t="n">
         <v>-2637000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-385000000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-2438000000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-484000000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2705000000</v>
       </c>
     </row>
     <row r="15">
@@ -739,19 +737,19 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-3710000000</v>
+      </c>
+      <c r="C15" t="n">
         <v>-3825000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-3758000000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-3849000000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-3650000000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-3768000000</v>
       </c>
     </row>
     <row r="16">
@@ -761,19 +759,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>-3710000000</v>
+      </c>
+      <c r="C16" t="n">
         <v>-3825000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-3758000000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-3849000000</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-3650000000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-3768000000</v>
       </c>
     </row>
     <row r="17">
@@ -783,19 +781,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-23205000000</v>
+      </c>
+      <c r="C17" t="n">
         <v>-20139000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-21003000000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-17478000000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-19594000000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-19475000000</v>
       </c>
     </row>
     <row r="18">
@@ -805,19 +803,19 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-23205000000</v>
+      </c>
+      <c r="C18" t="n">
         <v>-20139000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-21003000000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-17478000000</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-19594000000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-19475000000</v>
       </c>
     </row>
     <row r="19">
@@ -827,19 +825,19 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>-3148000000</v>
+      </c>
+      <c r="C19" t="n">
         <v>-3984000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1993000000</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-283000000</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-1996000000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-9615000000</v>
       </c>
     </row>
     <row r="20">
@@ -849,19 +847,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C20" t="n">
         <v>-3984000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1993000000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1989000000</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>254000000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-8214000000</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +869,15 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C21" t="n">
         <v>-3984000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-8214000000</v>
+        <v>254000000</v>
       </c>
     </row>
     <row r="22">
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-3150000000</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>-2272000000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-2250000000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1401000000</v>
       </c>
     </row>
     <row r="23">
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-3150000000</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>-7500000000</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-2250000000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-1401000000</v>
       </c>
     </row>
     <row r="24">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -945,19 +945,19 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>-310000000</v>
+      </c>
+      <c r="C25" t="n">
         <v>1927000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2394000000</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>437000000</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2319000000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-1445000000</v>
       </c>
     </row>
     <row r="26">
@@ -967,19 +967,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>-310000000</v>
+      </c>
+      <c r="C26" t="n">
         <v>1927000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>2394000000</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>437000000</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>2319000000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-1445000000</v>
       </c>
     </row>
     <row r="27">
@@ -989,19 +989,19 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>-445000000</v>
+      </c>
+      <c r="C27" t="n">
         <v>-284000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>-584000000</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-506000000</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-106000000</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-141000000</v>
       </c>
     </row>
     <row r="28">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>2131000000</v>
+      </c>
+      <c r="C28" t="n">
         <v>4603000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>5141000000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>3036000000</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>5341000000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2483000000</v>
       </c>
     </row>
     <row r="29">
@@ -1033,19 +1033,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>17393000000</v>
+      </c>
+      <c r="C29" t="n">
         <v>14383000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>13698000000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>12795000000</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>11385000000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7636000000</v>
       </c>
     </row>
     <row r="30">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>-15262000000</v>
+      </c>
+      <c r="C30" t="n">
         <v>-9780000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>-8557000000</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-9759000000</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-6044000000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-5153000000</v>
       </c>
     </row>
     <row r="31">
@@ -1077,19 +1077,19 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>-1996000000</v>
+      </c>
+      <c r="C31" t="n">
         <v>-2392000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-2163000000</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-2093000000</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-2916000000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-3787000000</v>
       </c>
     </row>
     <row r="32">
@@ -1099,19 +1099,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>-1996000000</v>
+      </c>
+      <c r="C32" t="n">
         <v>-2392000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>-2163000000</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-2093000000</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-2916000000</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-3787000000</v>
       </c>
     </row>
     <row r="33">
@@ -1121,19 +1121,19 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>22690000000</v>
+      </c>
+      <c r="C33" t="n">
         <v>39895000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>21598000000</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>26380000000</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>28560000000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>34005000000</v>
       </c>
     </row>
     <row r="34">
@@ -1143,19 +1143,19 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>22690000000</v>
+      </c>
+      <c r="C34" t="n">
         <v>39895000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>21598000000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>26380000000</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>28560000000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>34005000000</v>
       </c>
     </row>
     <row r="35">
@@ -1165,319 +1165,305 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>-5764000000</v>
+      </c>
+      <c r="C35" t="n">
         <v>1123000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>-6060000000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>749000000</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>231000000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-1497000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Change In Other Working Capital</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+          <t>Change In Other Current Liabilities</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>428000000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3865000000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45000000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1229000000</v>
+      </c>
       <c r="F36" t="n">
-        <v>131000000</v>
+        <v>-2132000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Change In Other Current Liabilities</t>
+          <t>Change In Other Current Assets</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3865000000</v>
+        <v>-2981000000</v>
       </c>
       <c r="C37" t="n">
-        <v>45000000</v>
+        <v>-1457000000</v>
       </c>
       <c r="D37" t="n">
-        <v>1229000000</v>
+        <v>-821000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-2132000000</v>
+        <v>-771000000</v>
       </c>
       <c r="F37" t="n">
-        <v>3889000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Change In Other Current Assets</t>
+          <t>Change In Payables And Accrued Expense</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1457000000</v>
+        <v>-12168000000</v>
       </c>
       <c r="C38" t="n">
-        <v>-821000000</v>
+        <v>-4542000000</v>
       </c>
       <c r="D38" t="n">
-        <v>-771000000</v>
+        <v>14901000000</v>
       </c>
       <c r="E38" t="n">
-        <v>7000000</v>
+        <v>3974000000</v>
       </c>
       <c r="F38" t="n">
-        <v>-4099000000</v>
+        <v>-14689000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Change In Payables And Accrued Expense</t>
+          <t>Change In Payable</t>
         </is>
       </c>
       <c r="B39" t="n">
+        <v>-12168000000</v>
+      </c>
+      <c r="C39" t="n">
         <v>-4542000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>14901000000</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>3974000000</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>-14689000000</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-6075000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Change In Payable</t>
+          <t>Change In Account Payable</t>
         </is>
       </c>
       <c r="B40" t="n">
+        <v>-12168000000</v>
+      </c>
+      <c r="C40" t="n">
         <v>-4542000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>14901000000</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>3974000000</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-14689000000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-6075000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>Change In Account Payable</t>
+          <t>Change In Inventory</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4542000000</v>
+        <v>190000000</v>
       </c>
       <c r="C41" t="n">
-        <v>14901000000</v>
+        <v>-137000000</v>
       </c>
       <c r="D41" t="n">
-        <v>3974000000</v>
+        <v>952000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-14689000000</v>
+        <v>-22000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-6075000000</v>
+        <v>-741000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Change In Inventory</t>
+          <t>Change In Receivables</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-137000000</v>
+        <v>8767000000</v>
       </c>
       <c r="C42" t="n">
-        <v>952000000</v>
+        <v>11124000000</v>
       </c>
       <c r="D42" t="n">
-        <v>-22000000</v>
+        <v>-21137000000</v>
       </c>
       <c r="E42" t="n">
-        <v>-741000000</v>
+        <v>-3661000000</v>
       </c>
       <c r="F42" t="n">
-        <v>-1807000000</v>
+        <v>17786000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Change In Receivables</t>
+          <t>Changes In Account Receivables</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11124000000</v>
+        <v>1172000000</v>
       </c>
       <c r="C43" t="n">
-        <v>-21137000000</v>
+        <v>6555000000</v>
       </c>
       <c r="D43" t="n">
-        <v>-3661000000</v>
+        <v>-9297000000</v>
       </c>
       <c r="E43" t="n">
-        <v>17786000000</v>
+        <v>-1987000000</v>
       </c>
       <c r="F43" t="n">
-        <v>6595000000</v>
+        <v>5321000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Changes In Account Receivables</t>
+          <t>Other Non Cash Items</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6555000000</v>
+        <v>-982000000</v>
       </c>
       <c r="C44" t="n">
-        <v>-9297000000</v>
+        <v>-989000000</v>
       </c>
       <c r="D44" t="n">
-        <v>-1987000000</v>
+        <v>-576000000</v>
       </c>
       <c r="E44" t="n">
-        <v>5321000000</v>
+        <v>81000000</v>
       </c>
       <c r="F44" t="n">
-        <v>4275000000</v>
+        <v>-1415000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Other Non Cash Items</t>
+          <t>Stock Based Compensation</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-989000000</v>
+        <v>2964000000</v>
       </c>
       <c r="C45" t="n">
-        <v>-576000000</v>
+        <v>2997000000</v>
       </c>
       <c r="D45" t="n">
-        <v>81000000</v>
+        <v>2625000000</v>
       </c>
       <c r="E45" t="n">
-        <v>-1415000000</v>
+        <v>2617000000</v>
       </c>
       <c r="F45" t="n">
-        <v>-317000000</v>
+        <v>2686000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Stock Based Compensation</t>
+          <t>Depreciation Amortization Depletion</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2997000000</v>
+        <v>2836000000</v>
       </c>
       <c r="C46" t="n">
-        <v>2625000000</v>
+        <v>2848000000</v>
       </c>
       <c r="D46" t="n">
-        <v>2617000000</v>
+        <v>2653000000</v>
       </c>
       <c r="E46" t="n">
-        <v>2686000000</v>
+        <v>3052000000</v>
       </c>
       <c r="F46" t="n">
-        <v>2905000000</v>
+        <v>2898000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Depreciation Amortization Depletion</t>
+          <t>Depreciation And Amortization</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>2836000000</v>
+      </c>
+      <c r="C47" t="n">
         <v>2848000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>2653000000</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>3052000000</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>2898000000</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2916000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Depreciation And Amortization</t>
+          <t>Net Income From Continuing Operations</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2848000000</v>
+        <v>23636000000</v>
       </c>
       <c r="C48" t="n">
-        <v>2653000000</v>
+        <v>33916000000</v>
       </c>
       <c r="D48" t="n">
-        <v>3052000000</v>
+        <v>22956000000</v>
       </c>
       <c r="E48" t="n">
-        <v>2898000000</v>
+        <v>19881000000</v>
       </c>
       <c r="F48" t="n">
-        <v>2916000000</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Net Income From Continuing Operations</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>33916000000</v>
-      </c>
-      <c r="C49" t="n">
-        <v>22956000000</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19881000000</v>
-      </c>
-      <c r="E49" t="n">
         <v>24160000000</v>
-      </c>
-      <c r="F49" t="n">
-        <v>29998000000</v>
       </c>
     </row>
   </sheetData>
